--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="112">
   <si>
     <t>VVSS, Info Romana, 2020-2021</t>
   </si>
@@ -222,18 +222,9 @@
     <t>F02. Cyclomatic Complexity (CC)</t>
   </si>
   <si>
-    <t>CC1 = No. of regions =</t>
-  </si>
-  <si>
-    <t>CC2 = Edges - Nodes + 2 =</t>
-  </si>
-  <si>
     <t>&lt;Req02 CFG &gt;</t>
   </si>
   <si>
-    <t>CC3 = No. of Conditions + 1 =</t>
-  </si>
-  <si>
     <t>Predicate+1</t>
   </si>
   <si>
@@ -319,9 +310,6 @@
   </si>
   <si>
     <t>IF(nextTime.equals(end))</t>
-  </si>
-  <si>
-    <t>n-1</t>
   </si>
   <si>
     <t>n</t>
@@ -539,6 +527,42 @@
   </si>
   <si>
     <t>Zotica Ștefan-Lucian</t>
+  </si>
+  <si>
+    <t>CC2 = Edges - Nodes + 2 = 13 -10 + 2</t>
+  </si>
+  <si>
+    <t>CC1 = No. of regions = 5</t>
+  </si>
+  <si>
+    <t>CC3 = No. of Conditions + 1 = 4 + 1</t>
+  </si>
+  <si>
+    <t>1, 2, 10</t>
+  </si>
+  <si>
+    <t>VVSS, Info Romana, 2023,2024</t>
+  </si>
+  <si>
+    <t>F02. Afisarea task,rilor planificate intr,o anumita perioada de timp, precizata ca data si ora de inceput si data si ora de sfarsit.</t>
+  </si>
+  <si>
+    <t>n,1</t>
+  </si>
+  <si>
+    <t>1 , 2 , 3 , 4 , 5 , 2 , 10</t>
+  </si>
+  <si>
+    <t>1 , 2 , 3 , 4 , 6 , 7 , 2 , 10</t>
+  </si>
+  <si>
+    <t>1 , 2 , 3 , 4 , 6 , 8 , 9 , 2 , 10</t>
+  </si>
+  <si>
+    <t>1 , 2 , 3 , 4 , 6 , 8 , 2 , 10</t>
+  </si>
+  <si>
+    <t>[t1,t2]</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1675,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1693,9 +1717,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1778,54 +1799,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1919,6 +1940,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1970,20 +2006,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2468,8 +2510,8 @@
   </sheetPr>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,15 +2523,15 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="13"/>
-      <c r="D1" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="D1" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2507,21 +2549,21 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29" t="s">
+      <c r="N6" s="28"/>
+      <c r="O6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2530,14 +2572,14 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>102</v>
+      <c r="O7" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2545,98 +2587,98 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>102</v>
+      <c r="O8" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="45"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="44"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -2663,7 +2705,7 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,63 +2723,63 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="13"/>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="I6" s="53" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="I6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="AA6" s="53" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="AA6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="24"/>
       <c r="I8" s="13"/>
-      <c r="AA8" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="34">
+      <c r="AA8" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="33">
         <v>5</v>
       </c>
     </row>
@@ -2745,281 +2787,281 @@
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="I9" s="36"/>
-      <c r="AA9" s="59" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="I9" s="35"/>
+      <c r="AA9" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="I10" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="AA10" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB10" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="34">
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="I10" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="66"/>
-      <c r="AA10" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB10" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="34">
-        <v>5</v>
-      </c>
-    </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="69"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="69"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="66"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="69"/>
-      <c r="AA13" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="66"/>
+      <c r="AA13" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="69"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="66"/>
     </row>
     <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="69"/>
-      <c r="AA15" s="38" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="66"/>
+      <c r="AA15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB15" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+    </row>
+    <row r="16" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="66"/>
+      <c r="AA16" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="AB15" s="73" t="s">
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+    </row>
+    <row r="17" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="66"/>
+      <c r="AA17" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="73"/>
-    </row>
-    <row r="16" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="69"/>
-      <c r="AA16" s="37" t="s">
+      <c r="AB17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="AB16" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-    </row>
-    <row r="17" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="69"/>
-      <c r="AA17" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB17" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
     </row>
     <row r="18" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>6</v>
       </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="69"/>
-      <c r="AA18" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB18" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="66"/>
+      <c r="AA18" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB18" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
     </row>
     <row r="19" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>7</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="69"/>
-      <c r="AA19" s="37" t="s">
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="66"/>
+      <c r="AA19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB19" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+    </row>
+    <row r="20" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
+      <c r="AA20" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB20" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AB19" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-    </row>
-    <row r="20" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="69"/>
-      <c r="AA20" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB20" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="60"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
     </row>
     <row r="21" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="69"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="69"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="66"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>8</v>
       </c>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="69"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>9</v>
       </c>
-      <c r="I24" s="70"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="72"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="69"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
@@ -3028,6 +3070,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:I1"/>
     <mergeCell ref="AB20:AD20"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="I10:O24"/>
@@ -3043,7 +3086,6 @@
     <mergeCell ref="AA9:AC9"/>
     <mergeCell ref="AB16:AD16"/>
     <mergeCell ref="AA13:AD13"/>
-    <mergeCell ref="D1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3056,10 +3098,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59996337778862885"/>
   </sheetPr>
-  <dimension ref="B1:AA20"/>
+  <dimension ref="B1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3093,26 +3135,26 @@
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
-      <c r="D1" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="D1" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="B3" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -3127,209 +3169,207 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+    </row>
+    <row r="7" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="86"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="74" t="s">
+      <c r="H7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-    </row>
-    <row r="7" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="87"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="83" t="s">
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
+    </row>
+    <row r="8" spans="2:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="86"/>
+      <c r="C8" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="85" t="s">
+      <c r="D8" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="86" t="s">
+      <c r="E8" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-    </row>
-    <row r="8" spans="2:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="87"/>
-      <c r="C8" s="74" t="s">
+      <c r="F8" s="75"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="I8" s="83"/>
+      <c r="J8" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="K8" s="83"/>
+      <c r="L8" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84" t="s">
+      <c r="M8" s="83"/>
+      <c r="N8" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84" t="s">
+      <c r="O8" s="83"/>
+      <c r="P8" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="85">
+        <v>0</v>
+      </c>
+      <c r="V8" s="85">
+        <v>1</v>
+      </c>
+      <c r="W8" s="85">
+        <v>2</v>
+      </c>
+      <c r="X8" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84" t="s">
+      <c r="Z8" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84" t="s">
+      <c r="AA8" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="84"/>
-      <c r="P8" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" s="86">
-        <v>0</v>
-      </c>
-      <c r="V8" s="86">
-        <v>1</v>
-      </c>
-      <c r="W8" s="86">
-        <v>2</v>
-      </c>
-      <c r="X8" s="86" t="s">
+    </row>
+    <row r="9" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="86"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="86" t="s">
+      <c r="I9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="Z8" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA8" s="86" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="87"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
+      <c r="J9" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
     </row>
     <row r="10" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="C10" s="14"/>
       <c r="D10" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -3338,19 +3378,21 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
       <c r="P10" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
       <c r="U10" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
+      <c r="Y10" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
     </row>
@@ -3358,25 +3400,27 @@
       <c r="B11" s="14">
         <v>2</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="D11" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -3384,10 +3428,10 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="P11" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
@@ -3397,7 +3441,7 @@
       <c r="W11" s="19"/>
       <c r="X11" s="19"/>
       <c r="Y11" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
@@ -3407,40 +3451,40 @@
         <v>3</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="51">
+        <v>55</v>
+      </c>
+      <c r="D12" s="50">
         <v>45576</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="50">
         <v>45577</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="P12" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="18"/>
       <c r="R12" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
@@ -3449,7 +3493,7 @@
       <c r="W12" s="19"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
@@ -3459,43 +3503,43 @@
         <v>4</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="51">
+        <v>55</v>
+      </c>
+      <c r="D13" s="50">
         <v>45573</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="50">
         <v>45574</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O13" s="17"/>
       <c r="P13" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T13" s="18"/>
       <c r="U13" s="19"/>
@@ -3503,7 +3547,7 @@
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
@@ -3513,119 +3557,225 @@
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="51">
+        <v>55</v>
+      </c>
+      <c r="D14" s="50">
         <v>45571</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="50">
         <v>45572</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N14" s="17"/>
       <c r="O14" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
     </row>
     <row r="15" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
+      <c r="B15" s="14">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="50">
+        <v>45571</v>
+      </c>
+      <c r="E15" s="50">
+        <v>45572</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="K15" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="M15" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="18"/>
+      <c r="O15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
+      <c r="T15" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
+      <c r="W15" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
+      <c r="Y15" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="14">
+        <v>7</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="50">
+        <v>45571</v>
+      </c>
+      <c r="E16" s="50">
+        <v>45572</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+    </row>
+    <row r="17" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="132"/>
+    </row>
+    <row r="18" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>99</v>
+        <v>60</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3672,7 +3822,7 @@
   <dimension ref="B1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="N14" sqref="N14:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3695,211 +3845,211 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="13"/>
-      <c r="D1" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="D1" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="97" t="s">
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="L4" s="88"/>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="97"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="G5" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="88" t="s">
+      <c r="L5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="89"/>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="98"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="2" t="s">
+    </row>
+    <row r="6" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20">
+        <v>9</v>
+      </c>
+      <c r="C6" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
-        <v>9</v>
-      </c>
-      <c r="C6" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="41">
+      <c r="D6" s="40">
         <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="20">
+        <v>10</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="40">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
+        <v>11</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="39">
+        <v>3</v>
+      </c>
+      <c r="E8" s="50">
+        <v>45576</v>
+      </c>
+      <c r="F8" s="50">
+        <v>45577</v>
+      </c>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
+        <v>12</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="39">
+        <v>4</v>
+      </c>
+      <c r="E9" s="50">
+        <v>45573</v>
+      </c>
+      <c r="F9" s="50">
+        <v>45574</v>
+      </c>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="L9" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="G6" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="21">
-        <v>10</v>
-      </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="41">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="21">
-        <v>11</v>
-      </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="40">
-        <v>3</v>
-      </c>
-      <c r="E8" s="51">
-        <v>45576</v>
-      </c>
-      <c r="F8" s="51">
-        <v>45577</v>
-      </c>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="21">
-        <v>12</v>
-      </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="40">
-        <v>4</v>
-      </c>
-      <c r="E9" s="51">
-        <v>45573</v>
-      </c>
-      <c r="F9" s="51">
-        <v>45574</v>
-      </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="42">
+      <c r="C10" s="90"/>
+      <c r="D10" s="41">
         <v>5</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="50">
         <v>45571</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="50">
         <v>45572</v>
       </c>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
       <c r="K10" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="23"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3913,146 +4063,145 @@
     <row r="12" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="108" t="s">
+      <c r="O14" s="110"/>
+    </row>
+    <row r="15" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="5" t="s">
+      <c r="D15" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="108" t="s">
+      <c r="E15" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="105" t="s">
+      <c r="F15" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="106"/>
-    </row>
-    <row r="15" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="119" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="120" t="s">
+      <c r="G15" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="116" t="s">
+      <c r="H15" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="116" t="s">
+      <c r="I15" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="J15" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="M15" s="117" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="99" t="s">
+    </row>
+    <row r="16" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="123"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="103"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="42">
+        <v>5</v>
+      </c>
+      <c r="D17" s="25">
+        <v>5</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <v>100</v>
+      </c>
+      <c r="G17" s="27">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="100" t="s">
+      <c r="I17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="28">
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0</v>
+      </c>
+      <c r="L17" s="29">
+        <v>0</v>
+      </c>
+      <c r="M17" s="30">
+        <v>100</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="116" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="116" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="O15" s="93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="119"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="104"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="43">
-        <v>5</v>
-      </c>
-      <c r="D17" s="26">
-        <v>5</v>
-      </c>
-      <c r="E17" s="26">
-        <v>0</v>
-      </c>
-      <c r="F17" s="27">
-        <v>100</v>
-      </c>
-      <c r="G17" s="28">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="29">
-        <f>SUM(K17:L17)</f>
-        <v>5</v>
-      </c>
-      <c r="K17" s="26">
-        <v>5</v>
-      </c>
-      <c r="L17" s="30">
-        <v>0</v>
-      </c>
-      <c r="M17" s="31">
-        <v>100</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O17" s="32">
+      <c r="O17" s="31">
         <v>5</v>
       </c>
     </row>
